--- a/output_data/charts/facilities-FayetteCounty-0500000US39047.xlsx
+++ b/output_data/charts/facilities-FayetteCounty-0500000US39047.xlsx
@@ -901,7 +901,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
